--- a/www.eia.gov/forecasts/steo/xls/Fig23.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig23.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Consumption (million kilowatthours per day)</t>
@@ -53,7 +53,7 @@
     <t>Total consumption</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Consumption (million kWh/day)</t>
@@ -329,13 +329,13 @@
                   <c:v>-8.5255129000001943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39179480000029798</c:v>
+                  <c:v>0.43038200000046345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205072999997356</c:v>
+                  <c:v>-26.670566199999939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.321860200000174</c:v>
+                  <c:v>61.781697199999599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,13 +387,13 @@
                   <c:v>23.211891952000315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.989479444000153</c:v>
+                  <c:v>-7.5302366430000802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7666790090001996</c:v>
+                  <c:v>10.707891360000303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.788621680999768</c:v>
+                  <c:v>31.874305665999145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,13 +445,13 @@
                   <c:v>-30.32439979999981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-116.02963580000005</c:v>
+                  <c:v>-130.11940179999965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.217255200000182</c:v>
+                  <c:v>107.97347319999972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.073071199999504</c:v>
+                  <c:v>12.256350699999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,13 +503,13 @@
                   <c:v>4.1322238900000343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7181482299999971</c:v>
+                  <c:v>3.4710961000000111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6844281300000148</c:v>
+                  <c:v>5.1780284199999755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5833149999994021E-2</c:v>
+                  <c:v>0.37752470999998877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,8 +524,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="643736576"/>
-        <c:axId val="643738256"/>
+        <c:axId val="635884304"/>
+        <c:axId val="635884864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -706,40 +706,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>11144.349085</c:v>
+                  <c:v>11025.380014999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11323.99638</c:v>
+                  <c:v>11335.338180000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10194.533589000001</c:v>
+                  <c:v>10205.472476000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9523.7789038999999</c:v>
+                  <c:v>9534.5685138999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9640.9541599999993</c:v>
+                  <c:v>9651.0457009999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11262.013879</c:v>
+                  <c:v>11273.426138999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12110.726766000002</c:v>
+                  <c:v>12122.411796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12074.342536</c:v>
+                  <c:v>12085.482866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11486.464275999999</c:v>
+                  <c:v>11496.908665999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9909.1697506</c:v>
+                  <c:v>9919.637584600001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9572.2056405999992</c:v>
+                  <c:v>9583.6802976000017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9979.7549548000006</c:v>
+                  <c:v>9991.4585238</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10622.782704000001</c:v>
@@ -769,16 +769,16 @@
                   <c:v>11465.650189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9780.983760699999</c:v>
+                  <c:v>9780.9837611999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9563.2214905000001</c:v>
+                  <c:v>9479.5220105000008</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10593.970386000001</c:v>
+                  <c:v>10546.999894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>10939.155406</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1100,79 +1100,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10593.970386000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10961.220000000001</c:v>
+                  <c:v>10939.155406</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10709.47</c:v>
+                  <c:v>10585.62</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9760.8220000000001</c:v>
+                  <c:v>9805.7759999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9431.2159999999985</c:v>
+                  <c:v>9459.8340000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9651.1090000000004</c:v>
+                  <c:v>9675.3990000000013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11295.439999999999</c:v>
+                  <c:v>11324.43</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12106.9</c:v>
+                  <c:v>12139.49</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12329.61</c:v>
+                  <c:v>12352.61</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11266.3</c:v>
+                  <c:v>11281.359999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9805.7659999999996</c:v>
+                  <c:v>9812.4480000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9743.0749999999989</c:v>
+                  <c:v>9689.0929999999989</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10742.58</c:v>
+                  <c:v>10652.26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11051.7</c:v>
+                  <c:v>11303.22</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10764.960000000001</c:v>
+                  <c:v>10811.56</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9830.7379999999994</c:v>
+                  <c:v>9855.7400000000016</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9499.4929999999986</c:v>
+                  <c:v>9516.89</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9721.6629999999986</c:v>
+                  <c:v>9741.4310000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11377.16</c:v>
+                  <c:v>11399.16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12201.33</c:v>
+                  <c:v>12225.45</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12431.54</c:v>
+                  <c:v>12447.720000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11348.82</c:v>
+                  <c:v>11360.369999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9864.1660000000011</c:v>
+                  <c:v>9872.469000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9805.1829999999991</c:v>
+                  <c:v>9744.5010000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10819.52</c:v>
+                  <c:v>10720.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,11 +1189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643719216"/>
-        <c:axId val="643737136"/>
+        <c:axId val="635883184"/>
+        <c:axId val="635883744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="643719216"/>
+        <c:axId val="635883184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643737136"/>
+        <c:crossAx val="635883744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1221,7 +1221,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643737136"/>
+        <c:axId val="635883744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,12 +1247,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643719216"/>
+        <c:crossAx val="635883184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="643736576"/>
+        <c:axId val="635884304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643738256"/>
+        <c:crossAx val="635884864"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643738256"/>
+        <c:axId val="635884864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1294,7 +1294,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643736576"/>
+        <c:crossAx val="635884304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,7 +1467,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1599,13 +1599,13 @@
             <v>-8.5255129000001943</v>
           </cell>
           <cell r="K27">
-            <v>0.39179480000029798</v>
+            <v>0.43038200000046345</v>
           </cell>
           <cell r="L27">
-            <v>1.0205072999997356</v>
+            <v>-26.670566199999939</v>
           </cell>
           <cell r="M27">
-            <v>36.321860200000174</v>
+            <v>61.781697199999599</v>
           </cell>
         </row>
         <row r="28">
@@ -1613,13 +1613,13 @@
             <v>-30.32439979999981</v>
           </cell>
           <cell r="K28">
-            <v>-116.02963580000005</v>
+            <v>-130.11940179999965</v>
           </cell>
           <cell r="L28">
-            <v>77.217255200000182</v>
+            <v>107.97347319999972</v>
           </cell>
           <cell r="M28">
-            <v>13.073071199999504</v>
+            <v>12.256350699999984</v>
           </cell>
         </row>
         <row r="29">
@@ -1627,13 +1627,13 @@
             <v>23.211891952000315</v>
           </cell>
           <cell r="K29">
-            <v>-10.989479444000153</v>
+            <v>-7.5302366430000802</v>
           </cell>
           <cell r="L29">
-            <v>7.7666790090001996</v>
+            <v>10.707891360000303</v>
           </cell>
           <cell r="M29">
-            <v>26.788621680999768</v>
+            <v>31.874305665999145</v>
           </cell>
         </row>
         <row r="30">
@@ -1641,13 +1641,13 @@
             <v>4.1322238900000343</v>
           </cell>
           <cell r="K30">
-            <v>3.7181482299999971</v>
+            <v>3.4710961000000111</v>
           </cell>
           <cell r="L30">
-            <v>6.6844281300000148</v>
+            <v>5.1780284199999755</v>
           </cell>
           <cell r="M30">
-            <v>7.5833149999994021E-2</v>
+            <v>0.37752470999998877</v>
           </cell>
         </row>
         <row r="37">
@@ -1655,7 +1655,7 @@
             <v>42005</v>
           </cell>
           <cell r="C37">
-            <v>11144.349085</v>
+            <v>11025.380014999999</v>
           </cell>
           <cell r="D37" t="e">
             <v>#N/A</v>
@@ -1666,7 +1666,7 @@
             <v>42036</v>
           </cell>
           <cell r="C38">
-            <v>11323.99638</v>
+            <v>11335.338180000001</v>
           </cell>
           <cell r="D38" t="e">
             <v>#N/A</v>
@@ -1677,7 +1677,7 @@
             <v>42064</v>
           </cell>
           <cell r="C39">
-            <v>10194.533589000001</v>
+            <v>10205.472476000001</v>
           </cell>
           <cell r="D39" t="e">
             <v>#N/A</v>
@@ -1688,7 +1688,7 @@
             <v>42095</v>
           </cell>
           <cell r="C40">
-            <v>9523.7789038999999</v>
+            <v>9534.5685138999997</v>
           </cell>
           <cell r="D40" t="e">
             <v>#N/A</v>
@@ -1699,7 +1699,7 @@
             <v>42125</v>
           </cell>
           <cell r="C41">
-            <v>9640.9541599999993</v>
+            <v>9651.0457009999991</v>
           </cell>
           <cell r="D41" t="e">
             <v>#N/A</v>
@@ -1710,7 +1710,7 @@
             <v>42156</v>
           </cell>
           <cell r="C42">
-            <v>11262.013879</v>
+            <v>11273.426138999999</v>
           </cell>
           <cell r="D42" t="e">
             <v>#N/A</v>
@@ -1721,7 +1721,7 @@
             <v>42186</v>
           </cell>
           <cell r="C43">
-            <v>12110.726766000002</v>
+            <v>12122.411796</v>
           </cell>
           <cell r="D43" t="e">
             <v>#N/A</v>
@@ -1732,7 +1732,7 @@
             <v>42217</v>
           </cell>
           <cell r="C44">
-            <v>12074.342536</v>
+            <v>12085.482866</v>
           </cell>
           <cell r="D44" t="e">
             <v>#N/A</v>
@@ -1743,7 +1743,7 @@
             <v>42248</v>
           </cell>
           <cell r="C45">
-            <v>11486.464275999999</v>
+            <v>11496.908665999999</v>
           </cell>
           <cell r="D45" t="e">
             <v>#N/A</v>
@@ -1754,7 +1754,7 @@
             <v>42278</v>
           </cell>
           <cell r="C46">
-            <v>9909.1697506</v>
+            <v>9919.637584600001</v>
           </cell>
           <cell r="D46" t="e">
             <v>#N/A</v>
@@ -1765,7 +1765,7 @@
             <v>42309</v>
           </cell>
           <cell r="C47">
-            <v>9572.2056405999992</v>
+            <v>9583.6802976000017</v>
           </cell>
           <cell r="D47" t="e">
             <v>#N/A</v>
@@ -1776,7 +1776,7 @@
             <v>42339</v>
           </cell>
           <cell r="C48">
-            <v>9979.7549548000006</v>
+            <v>9991.4585238</v>
           </cell>
           <cell r="D48" t="e">
             <v>#N/A</v>
@@ -1886,7 +1886,7 @@
             <v>42644</v>
           </cell>
           <cell r="C58">
-            <v>9780.983760699999</v>
+            <v>9780.9837611999992</v>
           </cell>
           <cell r="D58" t="e">
             <v>#N/A</v>
@@ -1897,7 +1897,7 @@
             <v>42675</v>
           </cell>
           <cell r="C59">
-            <v>9563.2214905000001</v>
+            <v>9479.5220105000008</v>
           </cell>
           <cell r="D59" t="e">
             <v>#N/A</v>
@@ -1908,21 +1908,21 @@
             <v>42705</v>
           </cell>
           <cell r="C60">
-            <v>10593.970386000001</v>
-          </cell>
-          <cell r="D60">
-            <v>10593.970386000001</v>
+            <v>10546.999894</v>
+          </cell>
+          <cell r="D60" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>42736</v>
           </cell>
-          <cell r="C61" t="e">
-            <v>#N/A</v>
+          <cell r="C61">
+            <v>10939.155406</v>
           </cell>
           <cell r="D61">
-            <v>10961.220000000001</v>
+            <v>10939.155406</v>
           </cell>
         </row>
         <row r="62">
@@ -1933,7 +1933,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>10709.47</v>
+            <v>10585.62</v>
           </cell>
         </row>
         <row r="63">
@@ -1944,7 +1944,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>9760.8220000000001</v>
+            <v>9805.7759999999998</v>
           </cell>
         </row>
         <row r="64">
@@ -1955,7 +1955,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>9431.2159999999985</v>
+            <v>9459.8340000000007</v>
           </cell>
         </row>
         <row r="65">
@@ -1966,7 +1966,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>9651.1090000000004</v>
+            <v>9675.3990000000013</v>
           </cell>
         </row>
         <row r="66">
@@ -1977,7 +1977,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>11295.439999999999</v>
+            <v>11324.43</v>
           </cell>
         </row>
         <row r="67">
@@ -1988,7 +1988,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>12106.9</v>
+            <v>12139.49</v>
           </cell>
         </row>
         <row r="68">
@@ -1999,7 +1999,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>12329.61</v>
+            <v>12352.61</v>
           </cell>
         </row>
         <row r="69">
@@ -2010,7 +2010,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>11266.3</v>
+            <v>11281.359999999999</v>
           </cell>
         </row>
         <row r="70">
@@ -2021,7 +2021,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>9805.7659999999996</v>
+            <v>9812.4480000000003</v>
           </cell>
         </row>
         <row r="71">
@@ -2032,7 +2032,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>9743.0749999999989</v>
+            <v>9689.0929999999989</v>
           </cell>
         </row>
         <row r="72">
@@ -2043,7 +2043,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>10742.58</v>
+            <v>10652.26</v>
           </cell>
         </row>
         <row r="73">
@@ -2054,7 +2054,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>11051.7</v>
+            <v>11303.22</v>
           </cell>
         </row>
         <row r="74">
@@ -2065,7 +2065,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>10764.960000000001</v>
+            <v>10811.56</v>
           </cell>
         </row>
         <row r="75">
@@ -2076,7 +2076,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>9830.7379999999994</v>
+            <v>9855.7400000000016</v>
           </cell>
         </row>
         <row r="76">
@@ -2087,7 +2087,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>9499.4929999999986</v>
+            <v>9516.89</v>
           </cell>
         </row>
         <row r="77">
@@ -2098,7 +2098,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>9721.6629999999986</v>
+            <v>9741.4310000000005</v>
           </cell>
         </row>
         <row r="78">
@@ -2109,7 +2109,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>11377.16</v>
+            <v>11399.16</v>
           </cell>
         </row>
         <row r="79">
@@ -2120,7 +2120,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>12201.33</v>
+            <v>12225.45</v>
           </cell>
         </row>
         <row r="80">
@@ -2131,7 +2131,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>12431.54</v>
+            <v>12447.720000000001</v>
           </cell>
         </row>
         <row r="81">
@@ -2142,7 +2142,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>11348.82</v>
+            <v>11360.369999999999</v>
           </cell>
         </row>
         <row r="82">
@@ -2153,7 +2153,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>9864.1660000000011</v>
+            <v>9872.469000000001</v>
           </cell>
         </row>
         <row r="83">
@@ -2164,7 +2164,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D83">
-            <v>9805.1829999999991</v>
+            <v>9744.5010000000002</v>
           </cell>
         </row>
         <row r="84">
@@ -2175,7 +2175,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D84">
-            <v>10819.52</v>
+            <v>10720.91</v>
           </cell>
         </row>
       </sheetData>
@@ -2533,13 +2533,13 @@
         <v>3846.8397225999997</v>
       </c>
       <c r="F27" s="10">
-        <v>3847.2315174</v>
+        <v>3847.2701046000002</v>
       </c>
       <c r="G27" s="10">
-        <v>3848.2520246999998</v>
+        <v>3820.5995384000003</v>
       </c>
       <c r="H27" s="10">
-        <v>3884.5738848999999</v>
+        <v>3882.3812355999999</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="11">
@@ -2548,15 +2548,15 @@
       </c>
       <c r="K27" s="11">
         <f t="shared" si="0"/>
-        <v>0.39179480000029798</v>
+        <v>0.43038200000046345</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" si="0"/>
-        <v>1.0205072999997356</v>
+        <v>-26.670566199999939</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="0"/>
-        <v>36.321860200000174</v>
+        <v>61.781697199999599</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2570,13 +2570,13 @@
         <v>2702.7609093999999</v>
       </c>
       <c r="F28" s="10">
-        <v>2586.7312735999999</v>
+        <v>2572.6415076000003</v>
       </c>
       <c r="G28" s="10">
-        <v>2663.9485288000001</v>
+        <v>2680.6149808</v>
       </c>
       <c r="H28" s="10">
-        <v>2677.0215999999996</v>
+        <v>2692.8713315</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="11">
@@ -2585,15 +2585,15 @@
       </c>
       <c r="K28" s="11">
         <f t="shared" si="0"/>
-        <v>-116.02963580000005</v>
+        <v>-130.11940179999965</v>
       </c>
       <c r="L28" s="11">
         <f t="shared" si="0"/>
-        <v>77.217255200000182</v>
+        <v>107.97347319999972</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>13.073071199999504</v>
+        <v>12.256350699999984</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2607,13 +2607,13 @@
         <v>3749.0086538250002</v>
       </c>
       <c r="F29" s="10">
-        <v>3738.0191743810001</v>
+        <v>3741.4784171820002</v>
       </c>
       <c r="G29" s="10">
-        <v>3745.7858533900003</v>
+        <v>3752.1863085420005</v>
       </c>
       <c r="H29" s="10">
-        <v>3772.5744750710001</v>
+        <v>3784.0606142079996</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="11">
@@ -2622,15 +2622,15 @@
       </c>
       <c r="K29" s="11">
         <f t="shared" si="0"/>
-        <v>-10.989479444000153</v>
+        <v>-7.5302366430000802</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" si="0"/>
-        <v>7.7666790090001996</v>
+        <v>10.707891360000303</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="0"/>
-        <v>26.788621680999768</v>
+        <v>31.874305665999145</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2644,13 +2644,13 @@
         <v>383.78670145000001</v>
       </c>
       <c r="F30" s="10">
-        <v>387.50484968000001</v>
+        <v>387.25779755000002</v>
       </c>
       <c r="G30" s="10">
-        <v>394.18927781000002</v>
+        <v>392.43582597</v>
       </c>
       <c r="H30" s="10">
-        <v>394.26511096000002</v>
+        <v>392.81335067999999</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="11">
@@ -2659,15 +2659,15 @@
       </c>
       <c r="K30" s="11">
         <f>F30-E30</f>
-        <v>3.7181482299999971</v>
+        <v>3.4710961000000111</v>
       </c>
       <c r="L30" s="11">
         <f>G30-F30</f>
-        <v>6.6844281300000148</v>
+        <v>5.1780284199999755</v>
       </c>
       <c r="M30" s="11">
         <f>H30-G30</f>
-        <v>7.5833149999994021E-2</v>
+        <v>0.37752470999998877</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -2679,33 +2679,33 @@
         <v>10693.901784</v>
       </c>
       <c r="E31" s="13">
-        <v>10682.395988</v>
+        <v>10682.395987</v>
       </c>
       <c r="F31" s="13">
-        <v>10559.486815</v>
+        <v>10548.647827000001</v>
       </c>
       <c r="G31" s="13">
-        <v>10652.176184</v>
+        <v>10645.836056</v>
       </c>
       <c r="H31" s="13">
-        <v>10728.435416</v>
+        <v>10752.127259999999</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="14">
         <f t="shared" si="0"/>
-        <v>-11.505795999999464</v>
+        <v>-11.505796999999802</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="0"/>
-        <v>-122.90917300000001</v>
+        <v>-133.74815999999919</v>
       </c>
       <c r="L31" s="14">
         <f t="shared" si="0"/>
-        <v>92.689368999999715</v>
+        <v>97.18822899999941</v>
       </c>
       <c r="M31" s="14">
         <f t="shared" si="0"/>
-        <v>76.259232000000338</v>
+        <v>106.2912039999992</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -2745,7 +2745,7 @@
         <v>42005</v>
       </c>
       <c r="C37" s="21">
-        <v>11144.349085</v>
+        <v>11025.380014999999</v>
       </c>
       <c r="D37" s="21" t="e">
         <v>#N/A</v>
@@ -2756,7 +2756,7 @@
         <v>42036</v>
       </c>
       <c r="C38" s="21">
-        <v>11323.99638</v>
+        <v>11335.338180000001</v>
       </c>
       <c r="D38" s="21" t="e">
         <v>#N/A</v>
@@ -2767,7 +2767,7 @@
         <v>42064</v>
       </c>
       <c r="C39" s="21">
-        <v>10194.533589000001</v>
+        <v>10205.472476000001</v>
       </c>
       <c r="D39" s="21" t="e">
         <v>#N/A</v>
@@ -2778,7 +2778,7 @@
         <v>42095</v>
       </c>
       <c r="C40" s="21">
-        <v>9523.7789038999999</v>
+        <v>9534.5685138999997</v>
       </c>
       <c r="D40" s="21" t="e">
         <v>#N/A</v>
@@ -2789,7 +2789,7 @@
         <v>42125</v>
       </c>
       <c r="C41" s="21">
-        <v>9640.9541599999993</v>
+        <v>9651.0457009999991</v>
       </c>
       <c r="D41" s="21" t="e">
         <v>#N/A</v>
@@ -2800,7 +2800,7 @@
         <v>42156</v>
       </c>
       <c r="C42" s="21">
-        <v>11262.013879</v>
+        <v>11273.426138999999</v>
       </c>
       <c r="D42" s="21" t="e">
         <v>#N/A</v>
@@ -2811,7 +2811,7 @@
         <v>42186</v>
       </c>
       <c r="C43" s="21">
-        <v>12110.726766000002</v>
+        <v>12122.411796</v>
       </c>
       <c r="D43" s="21" t="e">
         <v>#N/A</v>
@@ -2822,7 +2822,7 @@
         <v>42217</v>
       </c>
       <c r="C44" s="21">
-        <v>12074.342536</v>
+        <v>12085.482866</v>
       </c>
       <c r="D44" s="21" t="e">
         <v>#N/A</v>
@@ -2833,7 +2833,7 @@
         <v>42248</v>
       </c>
       <c r="C45" s="21">
-        <v>11486.464275999999</v>
+        <v>11496.908665999999</v>
       </c>
       <c r="D45" s="21" t="e">
         <v>#N/A</v>
@@ -2844,7 +2844,7 @@
         <v>42278</v>
       </c>
       <c r="C46" s="21">
-        <v>9909.1697506</v>
+        <v>9919.637584600001</v>
       </c>
       <c r="D46" s="21" t="e">
         <v>#N/A</v>
@@ -2855,7 +2855,7 @@
         <v>42309</v>
       </c>
       <c r="C47" s="21">
-        <v>9572.2056405999992</v>
+        <v>9583.6802976000017</v>
       </c>
       <c r="D47" s="21" t="e">
         <v>#N/A</v>
@@ -2866,7 +2866,7 @@
         <v>42339</v>
       </c>
       <c r="C48" s="21">
-        <v>9979.7549548000006</v>
+        <v>9991.4585238</v>
       </c>
       <c r="D48" s="21" t="e">
         <v>#N/A</v>
@@ -2976,7 +2976,7 @@
         <v>42644</v>
       </c>
       <c r="C58" s="21">
-        <v>9780.983760699999</v>
+        <v>9780.9837611999992</v>
       </c>
       <c r="D58" s="21" t="e">
         <v>#N/A</v>
@@ -2987,7 +2987,7 @@
         <v>42675</v>
       </c>
       <c r="C59" s="21">
-        <v>9563.2214905000001</v>
+        <v>9479.5220105000008</v>
       </c>
       <c r="D59" s="21" t="e">
         <v>#N/A</v>
@@ -2998,21 +2998,21 @@
         <v>42705</v>
       </c>
       <c r="C60" s="21">
-        <v>10593.970386000001</v>
-      </c>
-      <c r="D60" s="21">
-        <v>10593.970386000001</v>
+        <v>10546.999894</v>
+      </c>
+      <c r="D60" s="21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="20">
         <v>42736</v>
       </c>
-      <c r="C61" s="21" t="e">
-        <v>#N/A</v>
+      <c r="C61" s="21">
+        <v>10939.155406</v>
       </c>
       <c r="D61" s="21">
-        <v>10961.220000000001</v>
+        <v>10939.155406</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="21">
-        <v>10709.47</v>
+        <v>10585.62</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="21">
-        <v>9760.8220000000001</v>
+        <v>9805.7759999999998</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="21">
-        <v>9431.2159999999985</v>
+        <v>9459.8340000000007</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="21">
-        <v>9651.1090000000004</v>
+        <v>9675.3990000000013</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="21">
-        <v>11295.439999999999</v>
+        <v>11324.43</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="21">
-        <v>12106.9</v>
+        <v>12139.49</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="21">
-        <v>12329.61</v>
+        <v>12352.61</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="21">
-        <v>11266.3</v>
+        <v>11281.359999999999</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="21">
-        <v>9805.7659999999996</v>
+        <v>9812.4480000000003</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="21">
-        <v>9743.0749999999989</v>
+        <v>9689.0929999999989</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="21">
-        <v>10742.58</v>
+        <v>10652.26</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="21">
-        <v>11051.7</v>
+        <v>11303.22</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3155,7 +3155,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="21">
-        <v>10764.960000000001</v>
+        <v>10811.56</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="21">
-        <v>9830.7379999999994</v>
+        <v>9855.7400000000016</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="21">
-        <v>9499.4929999999986</v>
+        <v>9516.89</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="21">
-        <v>9721.6629999999986</v>
+        <v>9741.4310000000005</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="21">
-        <v>11377.16</v>
+        <v>11399.16</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3210,7 +3210,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="21">
-        <v>12201.33</v>
+        <v>12225.45</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="21">
-        <v>12431.54</v>
+        <v>12447.720000000001</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="21">
-        <v>11348.82</v>
+        <v>11360.369999999999</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="21">
-        <v>9864.1660000000011</v>
+        <v>9872.469000000001</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="21">
-        <v>9805.1829999999991</v>
+        <v>9744.5010000000002</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>#N/A</v>
       </c>
       <c r="D84" s="13">
-        <v>10819.52</v>
+        <v>10720.91</v>
       </c>
     </row>
   </sheetData>
